--- a/FT_2023.xlsx
+++ b/FT_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\02_Proyectos\1_Finance\Finance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GIT\Finance_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B098736-F385-424F-A63E-66CE03CD2A0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E692A92-1701-46CF-A8BA-FC54E6086EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,19 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">database!$A$1:$G$77</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mg6wTFCWDpoCgFrh8665CSpowHRhw=="/>
     </ext>
@@ -30,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="165">
   <si>
     <t>Targets 2023</t>
   </si>
@@ -695,6 +706,18 @@
   </si>
   <si>
     <t>Autonomo</t>
+  </si>
+  <si>
+    <t>BANGOA</t>
+  </si>
+  <si>
+    <t>RESTAURANT 3 FOCS</t>
+  </si>
+  <si>
+    <t>Mi cumple</t>
+  </si>
+  <si>
+    <t>w Sol/Alina</t>
   </si>
 </sst>
 </file>
@@ -1760,8 +1783,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3019425" y="2752725"/>
-          <a:ext cx="6219825" cy="1819275"/>
+          <a:off x="3152775" y="2714625"/>
+          <a:ext cx="6505575" cy="1790700"/>
           <a:chOff x="3124200" y="2552700"/>
           <a:chExt cx="6219825" cy="1819275"/>
         </a:xfrm>
@@ -3720,8 +3743,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3067050" y="5543550"/>
-          <a:ext cx="1885950" cy="1104900"/>
+          <a:off x="3200400" y="5461000"/>
+          <a:ext cx="1978025" cy="1089025"/>
           <a:chOff x="3190875" y="5372100"/>
           <a:chExt cx="1885950" cy="1104900"/>
         </a:xfrm>
@@ -4299,22 +4322,22 @@
       <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.453125" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" customWidth="1"/>
+    <col min="10" max="10" width="10.26953125" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="18" width="10.28515625" customWidth="1"/>
-    <col min="19" max="26" width="8.7109375" customWidth="1"/>
+    <col min="13" max="18" width="10.26953125" customWidth="1"/>
+    <col min="19" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
@@ -32461,31 +32484,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5703125" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" customWidth="1"/>
+    <col min="7" max="7" width="9.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" customWidth="1"/>
-    <col min="15" max="26" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="8.7265625" customWidth="1"/>
+    <col min="15" max="26" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" ht="14.5">
       <c r="A1" s="48" t="s">
         <v>33</v>
       </c>
@@ -32531,7 +32554,7 @@
       <c r="Y1" s="32"/>
       <c r="Z1" s="32"/>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" ht="14.5">
       <c r="A2" s="53">
         <v>44927</v>
       </c>
@@ -32590,7 +32613,7 @@
       <c r="Y2" s="32"/>
       <c r="Z2" s="32"/>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" ht="14.5">
       <c r="A3" s="53">
         <v>44941</v>
       </c>
@@ -32649,7 +32672,7 @@
       <c r="Y3" s="32"/>
       <c r="Z3" s="32"/>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" ht="14.5">
       <c r="A4" s="53">
         <v>44958</v>
       </c>
@@ -32707,7 +32730,7 @@
       <c r="Y4" s="32"/>
       <c r="Z4" s="32"/>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" ht="14.5">
       <c r="A5" s="53">
         <v>44972</v>
       </c>
@@ -32758,7 +32781,7 @@
       <c r="Y5" s="32"/>
       <c r="Z5" s="32"/>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" ht="14.5">
       <c r="A6" s="53">
         <v>44986</v>
       </c>
@@ -32808,7 +32831,7 @@
       <c r="Y6" s="32"/>
       <c r="Z6" s="32"/>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" ht="14.5">
       <c r="A7" s="53">
         <v>45000</v>
       </c>
@@ -32859,7 +32882,7 @@
       <c r="Y7" s="32"/>
       <c r="Z7" s="32"/>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" ht="14.5">
       <c r="A8" s="53">
         <v>45017</v>
       </c>
@@ -32909,7 +32932,7 @@
       <c r="Y8" s="32"/>
       <c r="Z8" s="32"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" ht="14.5">
       <c r="A9" s="53">
         <v>45031</v>
       </c>
@@ -32960,7 +32983,7 @@
       <c r="Y9" s="32"/>
       <c r="Z9" s="32"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" ht="14.5">
       <c r="A10" s="53">
         <v>45047</v>
       </c>
@@ -33010,7 +33033,7 @@
       <c r="Y10" s="32"/>
       <c r="Z10" s="32"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" ht="14.5">
       <c r="A11" s="53">
         <v>45061</v>
       </c>
@@ -33061,7 +33084,7 @@
       <c r="Y11" s="32"/>
       <c r="Z11" s="32"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" ht="14.5">
       <c r="A12" s="53">
         <v>45078</v>
       </c>
@@ -33111,7 +33134,7 @@
       <c r="Y12" s="32"/>
       <c r="Z12" s="32"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" ht="14.5">
       <c r="A13" s="53">
         <v>45092</v>
       </c>
@@ -33162,7 +33185,7 @@
       <c r="Y13" s="32"/>
       <c r="Z13" s="32"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" ht="14.5">
       <c r="A14" s="53">
         <v>45108</v>
       </c>
@@ -33212,7 +33235,7 @@
       <c r="Y14" s="32"/>
       <c r="Z14" s="32"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" ht="14.5">
       <c r="A15" s="53">
         <v>45122</v>
       </c>
@@ -33263,7 +33286,7 @@
       <c r="Y15" s="32"/>
       <c r="Z15" s="32"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" ht="14.5">
       <c r="A16" s="53">
         <v>45139</v>
       </c>
@@ -33313,7 +33336,7 @@
       <c r="Y16" s="32"/>
       <c r="Z16" s="32"/>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" ht="14.5">
       <c r="A17" s="53">
         <v>45153</v>
       </c>
@@ -33364,7 +33387,7 @@
       <c r="Y17" s="32"/>
       <c r="Z17" s="32"/>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" ht="14.5">
       <c r="A18" s="53">
         <v>45170</v>
       </c>
@@ -33414,7 +33437,7 @@
       <c r="Y18" s="32"/>
       <c r="Z18" s="32"/>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" ht="14.5">
       <c r="A19" s="53">
         <v>45184</v>
       </c>
@@ -33465,7 +33488,7 @@
       <c r="Y19" s="32"/>
       <c r="Z19" s="32"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" ht="14.5">
       <c r="A20" s="53">
         <v>45200</v>
       </c>
@@ -60326,23 +60349,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="26" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
+    <col min="8" max="26" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="14.5">
       <c r="A1" s="63" t="s">
         <v>41</v>
       </c>
@@ -60365,7 +60388,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="14.5">
       <c r="A2" s="65">
         <v>44927</v>
       </c>
@@ -60379,16 +60402,16 @@
         <v>-1000</v>
       </c>
       <c r="E2" s="68" t="str">
-        <f t="shared" ref="E2:E48" si="0">IF(D2&lt;0,"Gasto","Ingreso")</f>
+        <f>IF(D2&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F2" s="69" t="str">
-        <f t="shared" ref="F2:F48" si="1">IF(OR(C2="Alimentacion",C2="Simyo",C2="Piso", C2="Spotify",C2="Guitarra",C2="Salsa",C2="DeGiro",C2="Luz",C2="Agua"),IF(E2="Gasto","Fijo",""),IF(E2="Gasto","Variable",""))</f>
+        <f>IF(OR(C2="Alimentacion",C2="Simyo",C2="Piso", C2="Spotify",C2="Guitarra",C2="Salsa",C2="DeGiro",C2="Luz",C2="Agua"),IF(E2="Gasto","Fijo",""),IF(E2="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G2" s="66"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="14.5">
       <c r="A3" s="65">
         <v>44927</v>
       </c>
@@ -60402,16 +60425,16 @@
         <v>500</v>
       </c>
       <c r="E3" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D3&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F3" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C3="Alimentacion",C3="Simyo",C3="Piso", C3="Spotify",C3="Guitarra",C3="Salsa",C3="DeGiro",C3="Luz",C3="Agua"),IF(E3="Gasto","Fijo",""),IF(E3="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G3" s="66"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="14.5">
       <c r="A4" s="65">
         <v>44927</v>
       </c>
@@ -60425,18 +60448,18 @@
         <v>2.5</v>
       </c>
       <c r="E4" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D4&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F4" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C4="Alimentacion",C4="Simyo",C4="Piso", C4="Spotify",C4="Guitarra",C4="Salsa",C4="DeGiro",C4="Luz",C4="Agua"),IF(E4="Gasto","Fijo",""),IF(E4="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G4" s="66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="14.5">
       <c r="A5" s="65">
         <v>44927</v>
       </c>
@@ -60450,18 +60473,18 @@
         <v>2.5</v>
       </c>
       <c r="E5" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D5&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F5" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C5="Alimentacion",C5="Simyo",C5="Piso", C5="Spotify",C5="Guitarra",C5="Salsa",C5="DeGiro",C5="Luz",C5="Agua"),IF(E5="Gasto","Fijo",""),IF(E5="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G5" s="66" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="14.5">
       <c r="A6" s="65">
         <v>44927</v>
       </c>
@@ -60475,18 +60498,18 @@
         <v>2.5</v>
       </c>
       <c r="E6" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D6&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F6" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C6="Alimentacion",C6="Simyo",C6="Piso", C6="Spotify",C6="Guitarra",C6="Salsa",C6="DeGiro",C6="Luz",C6="Agua"),IF(E6="Gasto","Fijo",""),IF(E6="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G6" s="66" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="14.5">
       <c r="A7" s="65">
         <v>44927</v>
       </c>
@@ -60500,16 +60523,16 @@
         <v>-32.6</v>
       </c>
       <c r="E7" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D7&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F7" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C7="Alimentacion",C7="Simyo",C7="Piso", C7="Spotify",C7="Guitarra",C7="Salsa",C7="DeGiro",C7="Luz",C7="Agua"),IF(E7="Gasto","Fijo",""),IF(E7="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G7" s="66"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="14.5">
       <c r="A8" s="65">
         <v>44928</v>
       </c>
@@ -60523,16 +60546,16 @@
         <v>-0.35</v>
       </c>
       <c r="E8" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D8&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F8" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C8="Alimentacion",C8="Simyo",C8="Piso", C8="Spotify",C8="Guitarra",C8="Salsa",C8="DeGiro",C8="Luz",C8="Agua"),IF(E8="Gasto","Fijo",""),IF(E8="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G8" s="66"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="14.5">
       <c r="A9" s="65">
         <v>44928</v>
       </c>
@@ -60546,16 +60569,16 @@
         <v>-200</v>
       </c>
       <c r="E9" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D9&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F9" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C9="Alimentacion",C9="Simyo",C9="Piso", C9="Spotify",C9="Guitarra",C9="Salsa",C9="DeGiro",C9="Luz",C9="Agua"),IF(E9="Gasto","Fijo",""),IF(E9="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G9" s="66"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="14.5">
       <c r="A10" s="65">
         <v>44928</v>
       </c>
@@ -60569,18 +60592,18 @@
         <v>-150</v>
       </c>
       <c r="E10" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D10&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F10" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C10="Alimentacion",C10="Simyo",C10="Piso", C10="Spotify",C10="Guitarra",C10="Salsa",C10="DeGiro",C10="Luz",C10="Agua"),IF(E10="Gasto","Fijo",""),IF(E10="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G10" s="66" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="14.5">
       <c r="A11" s="65">
         <v>44928</v>
       </c>
@@ -60594,16 +60617,16 @@
         <v>-39.61</v>
       </c>
       <c r="E11" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D11&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F11" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C11="Alimentacion",C11="Simyo",C11="Piso", C11="Spotify",C11="Guitarra",C11="Salsa",C11="DeGiro",C11="Luz",C11="Agua"),IF(E11="Gasto","Fijo",""),IF(E11="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G11" s="66"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="14.5">
       <c r="A12" s="65">
         <v>44929</v>
       </c>
@@ -60617,16 +60640,16 @@
         <v>-1.99</v>
       </c>
       <c r="E12" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D12&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F12" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C12="Alimentacion",C12="Simyo",C12="Piso", C12="Spotify",C12="Guitarra",C12="Salsa",C12="DeGiro",C12="Luz",C12="Agua"),IF(E12="Gasto","Fijo",""),IF(E12="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G12" s="66"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="14.5">
       <c r="A13" s="65">
         <v>44929</v>
       </c>
@@ -60640,16 +60663,16 @@
         <v>-12502</v>
       </c>
       <c r="E13" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D13&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F13" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C13="Alimentacion",C13="Simyo",C13="Piso", C13="Spotify",C13="Guitarra",C13="Salsa",C13="DeGiro",C13="Luz",C13="Agua"),IF(E13="Gasto","Fijo",""),IF(E13="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G13" s="66"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="14.5">
       <c r="A14" s="65">
         <v>44929</v>
       </c>
@@ -60663,16 +60686,16 @@
         <v>12502</v>
       </c>
       <c r="E14" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D14&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F14" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C14="Alimentacion",C14="Simyo",C14="Piso", C14="Spotify",C14="Guitarra",C14="Salsa",C14="DeGiro",C14="Luz",C14="Agua"),IF(E14="Gasto","Fijo",""),IF(E14="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G14" s="66"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="14.5">
       <c r="A15" s="65">
         <v>44929</v>
       </c>
@@ -60686,16 +60709,16 @@
         <v>-109.65</v>
       </c>
       <c r="E15" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D15&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F15" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C15="Alimentacion",C15="Simyo",C15="Piso", C15="Spotify",C15="Guitarra",C15="Salsa",C15="DeGiro",C15="Luz",C15="Agua"),IF(E15="Gasto","Fijo",""),IF(E15="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G15" s="66"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="14.5">
       <c r="A16" s="65">
         <v>44929</v>
       </c>
@@ -60709,16 +60732,16 @@
         <v>12</v>
       </c>
       <c r="E16" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D16&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F16" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C16="Alimentacion",C16="Simyo",C16="Piso", C16="Spotify",C16="Guitarra",C16="Salsa",C16="DeGiro",C16="Luz",C16="Agua"),IF(E16="Gasto","Fijo",""),IF(E16="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G16" s="66"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="14.5">
       <c r="A17" s="65">
         <v>44930</v>
       </c>
@@ -60732,18 +60755,18 @@
         <v>2.5</v>
       </c>
       <c r="E17" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D17&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F17" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C17="Alimentacion",C17="Simyo",C17="Piso", C17="Spotify",C17="Guitarra",C17="Salsa",C17="DeGiro",C17="Luz",C17="Agua"),IF(E17="Gasto","Fijo",""),IF(E17="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G17" s="66" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="14.5">
       <c r="A18" s="65">
         <v>44931</v>
       </c>
@@ -60757,16 +60780,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D18&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F18" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C18="Alimentacion",C18="Simyo",C18="Piso", C18="Spotify",C18="Guitarra",C18="Salsa",C18="DeGiro",C18="Luz",C18="Agua"),IF(E18="Gasto","Fijo",""),IF(E18="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G18" s="66"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="14.5">
       <c r="A19" s="65">
         <v>44932</v>
       </c>
@@ -60780,18 +60803,18 @@
         <v>19.25</v>
       </c>
       <c r="E19" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D19&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F19" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C19="Alimentacion",C19="Simyo",C19="Piso", C19="Spotify",C19="Guitarra",C19="Salsa",C19="DeGiro",C19="Luz",C19="Agua"),IF(E19="Gasto","Fijo",""),IF(E19="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G19" s="66" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="14.5">
       <c r="A20" s="65">
         <v>44932</v>
       </c>
@@ -60805,11 +60828,11 @@
         <v>-38.5</v>
       </c>
       <c r="E20" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D20&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F20" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C20="Alimentacion",C20="Simyo",C20="Piso", C20="Spotify",C20="Guitarra",C20="Salsa",C20="DeGiro",C20="Luz",C20="Agua"),IF(E20="Gasto","Fijo",""),IF(E20="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G20" s="66" t="s">
@@ -60830,11 +60853,11 @@
         <v>18.829999999999998</v>
       </c>
       <c r="E21" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D21&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F21" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C21="Alimentacion",C21="Simyo",C21="Piso", C21="Spotify",C21="Guitarra",C21="Salsa",C21="DeGiro",C21="Luz",C21="Agua"),IF(E21="Gasto","Fijo",""),IF(E21="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G21" s="66"/>
@@ -60853,11 +60876,11 @@
         <v>-18.829999999999998</v>
       </c>
       <c r="E22" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D22&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F22" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C22="Alimentacion",C22="Simyo",C22="Piso", C22="Spotify",C22="Guitarra",C22="Salsa",C22="DeGiro",C22="Luz",C22="Agua"),IF(E22="Gasto","Fijo",""),IF(E22="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G22" s="66"/>
@@ -60876,11 +60899,11 @@
         <v>-2.85</v>
       </c>
       <c r="E23" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D23&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F23" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C23="Alimentacion",C23="Simyo",C23="Piso", C23="Spotify",C23="Guitarra",C23="Salsa",C23="DeGiro",C23="Luz",C23="Agua"),IF(E23="Gasto","Fijo",""),IF(E23="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G23" s="66"/>
@@ -60899,11 +60922,11 @@
         <v>-0.1</v>
       </c>
       <c r="E24" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D24&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F24" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C24="Alimentacion",C24="Simyo",C24="Piso", C24="Spotify",C24="Guitarra",C24="Salsa",C24="DeGiro",C24="Luz",C24="Agua"),IF(E24="Gasto","Fijo",""),IF(E24="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G24" s="66"/>
@@ -60922,11 +60945,11 @@
         <v>-0.2</v>
       </c>
       <c r="E25" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D25&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F25" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C25="Alimentacion",C25="Simyo",C25="Piso", C25="Spotify",C25="Guitarra",C25="Salsa",C25="DeGiro",C25="Luz",C25="Agua"),IF(E25="Gasto","Fijo",""),IF(E25="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G25" s="66"/>
@@ -60945,11 +60968,11 @@
         <v>-1</v>
       </c>
       <c r="E26" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D26&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F26" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C26="Alimentacion",C26="Simyo",C26="Piso", C26="Spotify",C26="Guitarra",C26="Salsa",C26="DeGiro",C26="Luz",C26="Agua"),IF(E26="Gasto","Fijo",""),IF(E26="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G26" s="66"/>
@@ -60968,11 +60991,11 @@
         <v>-8</v>
       </c>
       <c r="E27" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D27&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F27" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C27="Alimentacion",C27="Simyo",C27="Piso", C27="Spotify",C27="Guitarra",C27="Salsa",C27="DeGiro",C27="Luz",C27="Agua"),IF(E27="Gasto","Fijo",""),IF(E27="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G27" s="66" t="s">
@@ -60993,11 +61016,11 @@
         <v>-14.25</v>
       </c>
       <c r="E28" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D28&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F28" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C28="Alimentacion",C28="Simyo",C28="Piso", C28="Spotify",C28="Guitarra",C28="Salsa",C28="DeGiro",C28="Luz",C28="Agua"),IF(E28="Gasto","Fijo",""),IF(E28="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G28" s="66" t="s">
@@ -61018,11 +61041,11 @@
         <v>-7.15</v>
       </c>
       <c r="E29" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D29&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F29" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C29="Alimentacion",C29="Simyo",C29="Piso", C29="Spotify",C29="Guitarra",C29="Salsa",C29="DeGiro",C29="Luz",C29="Agua"),IF(E29="Gasto","Fijo",""),IF(E29="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G29" s="66" t="s">
@@ -61043,11 +61066,11 @@
         <v>-6.5</v>
       </c>
       <c r="E30" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D30&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F30" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C30="Alimentacion",C30="Simyo",C30="Piso", C30="Spotify",C30="Guitarra",C30="Salsa",C30="DeGiro",C30="Luz",C30="Agua"),IF(E30="Gasto","Fijo",""),IF(E30="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G30" s="66"/>
@@ -61066,11 +61089,11 @@
         <v>-100</v>
       </c>
       <c r="E31" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D31&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F31" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C31="Alimentacion",C31="Simyo",C31="Piso", C31="Spotify",C31="Guitarra",C31="Salsa",C31="DeGiro",C31="Luz",C31="Agua"),IF(E31="Gasto","Fijo",""),IF(E31="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G31" s="66" t="s">
@@ -61091,11 +61114,11 @@
         <v>-12.7</v>
       </c>
       <c r="E32" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D32&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F32" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C32="Alimentacion",C32="Simyo",C32="Piso", C32="Spotify",C32="Guitarra",C32="Salsa",C32="DeGiro",C32="Luz",C32="Agua"),IF(E32="Gasto","Fijo",""),IF(E32="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G32" s="66" t="s">
@@ -61116,11 +61139,11 @@
         <v>-2.1</v>
       </c>
       <c r="E33" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D33&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F33" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C33="Alimentacion",C33="Simyo",C33="Piso", C33="Spotify",C33="Guitarra",C33="Salsa",C33="DeGiro",C33="Luz",C33="Agua"),IF(E33="Gasto","Fijo",""),IF(E33="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G33" s="66"/>
@@ -61139,11 +61162,11 @@
         <v>-15.99</v>
       </c>
       <c r="E34" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D34&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F34" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C34="Alimentacion",C34="Simyo",C34="Piso", C34="Spotify",C34="Guitarra",C34="Salsa",C34="DeGiro",C34="Luz",C34="Agua"),IF(E34="Gasto","Fijo",""),IF(E34="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G34" s="66"/>
@@ -61162,11 +61185,11 @@
         <v>-12.9</v>
       </c>
       <c r="E35" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D35&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F35" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C35="Alimentacion",C35="Simyo",C35="Piso", C35="Spotify",C35="Guitarra",C35="Salsa",C35="DeGiro",C35="Luz",C35="Agua"),IF(E35="Gasto","Fijo",""),IF(E35="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G35" s="66" t="s">
@@ -61187,11 +61210,11 @@
         <v>1031.56</v>
       </c>
       <c r="E36" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D36&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F36" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C36="Alimentacion",C36="Simyo",C36="Piso", C36="Spotify",C36="Guitarra",C36="Salsa",C36="DeGiro",C36="Luz",C36="Agua"),IF(E36="Gasto","Fijo",""),IF(E36="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G36" s="66"/>
@@ -61210,11 +61233,11 @@
         <v>-4</v>
       </c>
       <c r="E37" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D37&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F37" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C37="Alimentacion",C37="Simyo",C37="Piso", C37="Spotify",C37="Guitarra",C37="Salsa",C37="DeGiro",C37="Luz",C37="Agua"),IF(E37="Gasto","Fijo",""),IF(E37="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G37" s="66"/>
@@ -61233,11 +61256,11 @@
         <v>55</v>
       </c>
       <c r="E38" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D38&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F38" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C38="Alimentacion",C38="Simyo",C38="Piso", C38="Spotify",C38="Guitarra",C38="Salsa",C38="DeGiro",C38="Luz",C38="Agua"),IF(E38="Gasto","Fijo",""),IF(E38="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G38" s="66"/>
@@ -61256,11 +61279,11 @@
         <v>20</v>
       </c>
       <c r="E39" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D39&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F39" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C39="Alimentacion",C39="Simyo",C39="Piso", C39="Spotify",C39="Guitarra",C39="Salsa",C39="DeGiro",C39="Luz",C39="Agua"),IF(E39="Gasto","Fijo",""),IF(E39="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G39" s="66"/>
@@ -61279,11 +61302,11 @@
         <v>-6</v>
       </c>
       <c r="E40" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D40&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F40" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C40="Alimentacion",C40="Simyo",C40="Piso", C40="Spotify",C40="Guitarra",C40="Salsa",C40="DeGiro",C40="Luz",C40="Agua"),IF(E40="Gasto","Fijo",""),IF(E40="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G40" s="66"/>
@@ -61302,11 +61325,11 @@
         <v>-22.9</v>
       </c>
       <c r="E41" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D41&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F41" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C41="Alimentacion",C41="Simyo",C41="Piso", C41="Spotify",C41="Guitarra",C41="Salsa",C41="DeGiro",C41="Luz",C41="Agua"),IF(E41="Gasto","Fijo",""),IF(E41="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G41" s="66"/>
@@ -61325,11 +61348,11 @@
         <v>-10.5</v>
       </c>
       <c r="E42" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D42&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F42" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C42="Alimentacion",C42="Simyo",C42="Piso", C42="Spotify",C42="Guitarra",C42="Salsa",C42="DeGiro",C42="Luz",C42="Agua"),IF(E42="Gasto","Fijo",""),IF(E42="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G42" s="66"/>
@@ -61348,11 +61371,11 @@
         <v>-10.8</v>
       </c>
       <c r="E43" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D43&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F43" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C43="Alimentacion",C43="Simyo",C43="Piso", C43="Spotify",C43="Guitarra",C43="Salsa",C43="DeGiro",C43="Luz",C43="Agua"),IF(E43="Gasto","Fijo",""),IF(E43="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G43" s="66"/>
@@ -61371,11 +61394,11 @@
         <v>-37.57</v>
       </c>
       <c r="E44" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D44&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F44" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C44="Alimentacion",C44="Simyo",C44="Piso", C44="Spotify",C44="Guitarra",C44="Salsa",C44="DeGiro",C44="Luz",C44="Agua"),IF(E44="Gasto","Fijo",""),IF(E44="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G44" s="66" t="s">
@@ -61396,11 +61419,11 @@
         <v>-9.99</v>
       </c>
       <c r="E45" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D45&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F45" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C45="Alimentacion",C45="Simyo",C45="Piso", C45="Spotify",C45="Guitarra",C45="Salsa",C45="DeGiro",C45="Luz",C45="Agua"),IF(E45="Gasto","Fijo",""),IF(E45="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G45" s="66"/>
@@ -61419,11 +61442,11 @@
         <v>-8.65</v>
       </c>
       <c r="E46" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D46&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F46" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C46="Alimentacion",C46="Simyo",C46="Piso", C46="Spotify",C46="Guitarra",C46="Salsa",C46="DeGiro",C46="Luz",C46="Agua"),IF(E46="Gasto","Fijo",""),IF(E46="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G46" s="66"/>
@@ -61442,11 +61465,11 @@
         <v>-3.9</v>
       </c>
       <c r="E47" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D47&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F47" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C47="Alimentacion",C47="Simyo",C47="Piso", C47="Spotify",C47="Guitarra",C47="Salsa",C47="DeGiro",C47="Luz",C47="Agua"),IF(E47="Gasto","Fijo",""),IF(E47="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G47" s="66"/>
@@ -61465,11 +61488,11 @@
         <v>-1.45</v>
       </c>
       <c r="E48" s="68" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(D48&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F48" s="69" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(OR(C48="Alimentacion",C48="Simyo",C48="Piso", C48="Spotify",C48="Guitarra",C48="Salsa",C48="DeGiro",C48="Luz",C48="Agua"),IF(E48="Gasto","Fijo",""),IF(E48="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G48" s="66" t="s">
@@ -61507,11 +61530,11 @@
         <v>-5.5</v>
       </c>
       <c r="E50" s="68" t="str">
-        <f t="shared" ref="E50:E51" si="2">IF(D50&lt;0,"Gasto","Ingreso")</f>
+        <f>IF(D50&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F50" s="69" t="str">
-        <f t="shared" ref="F50:F51" si="3">IF(OR(C50="Alimentacion",C50="Simyo",C50="Piso", C50="Spotify",C50="Guitarra",C50="Salsa",C50="DeGiro",C50="Luz",C50="Agua"),IF(E50="Gasto","Fijo",""),IF(E50="Gasto","Variable",""))</f>
+        <f>IF(OR(C50="Alimentacion",C50="Simyo",C50="Piso", C50="Spotify",C50="Guitarra",C50="Salsa",C50="DeGiro",C50="Luz",C50="Agua"),IF(E50="Gasto","Fijo",""),IF(E50="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G50" s="66"/>
@@ -61530,11 +61553,11 @@
         <v>-28.16</v>
       </c>
       <c r="E51" s="68" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(D51&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F51" s="69" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(C51="Alimentacion",C51="Simyo",C51="Piso", C51="Spotify",C51="Guitarra",C51="Salsa",C51="DeGiro",C51="Luz",C51="Agua"),IF(E51="Gasto","Fijo",""),IF(E51="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G51" s="66"/>
@@ -61570,11 +61593,11 @@
         <v>-40</v>
       </c>
       <c r="E53" s="68" t="str">
-        <f t="shared" ref="E53:E91" si="4">IF(D53&lt;0,"Gasto","Ingreso")</f>
+        <f>IF(D53&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F53" s="69" t="str">
-        <f t="shared" ref="F53:F91" si="5">IF(OR(C53="Alimentacion",C53="Simyo",C53="Piso", C53="Spotify",C53="Guitarra",C53="Salsa",C53="DeGiro",C53="Luz",C53="Agua"),IF(E53="Gasto","Fijo",""),IF(E53="Gasto","Variable",""))</f>
+        <f>IF(OR(C53="Alimentacion",C53="Simyo",C53="Piso", C53="Spotify",C53="Guitarra",C53="Salsa",C53="DeGiro",C53="Luz",C53="Agua"),IF(E53="Gasto","Fijo",""),IF(E53="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G53" s="66" t="s">
@@ -61595,11 +61618,11 @@
         <v>-100</v>
       </c>
       <c r="E54" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D54&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F54" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C54="Alimentacion",C54="Simyo",C54="Piso", C54="Spotify",C54="Guitarra",C54="Salsa",C54="DeGiro",C54="Luz",C54="Agua"),IF(E54="Gasto","Fijo",""),IF(E54="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G54" s="66" t="s">
@@ -61620,11 +61643,11 @@
         <v>-19.989999999999998</v>
       </c>
       <c r="E55" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D55&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F55" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C55="Alimentacion",C55="Simyo",C55="Piso", C55="Spotify",C55="Guitarra",C55="Salsa",C55="DeGiro",C55="Luz",C55="Agua"),IF(E55="Gasto","Fijo",""),IF(E55="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G55" s="66"/>
@@ -61647,11 +61670,11 @@
         <v>-7.65</v>
       </c>
       <c r="E56" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D56&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F56" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C56="Alimentacion",C56="Simyo",C56="Piso", C56="Spotify",C56="Guitarra",C56="Salsa",C56="DeGiro",C56="Luz",C56="Agua"),IF(E56="Gasto","Fijo",""),IF(E56="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G56" s="66"/>
@@ -61670,11 +61693,11 @@
         <v>-225.5</v>
       </c>
       <c r="E57" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D57&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F57" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C57="Alimentacion",C57="Simyo",C57="Piso", C57="Spotify",C57="Guitarra",C57="Salsa",C57="DeGiro",C57="Luz",C57="Agua"),IF(E57="Gasto","Fijo",""),IF(E57="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G57" s="66" t="s">
@@ -61695,11 +61718,11 @@
         <v>-37.25</v>
       </c>
       <c r="E58" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D58&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F58" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C58="Alimentacion",C58="Simyo",C58="Piso", C58="Spotify",C58="Guitarra",C58="Salsa",C58="DeGiro",C58="Luz",C58="Agua"),IF(E58="Gasto","Fijo",""),IF(E58="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G58" s="66"/>
@@ -61718,11 +61741,11 @@
         <v>-11.35</v>
       </c>
       <c r="E59" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D59&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F59" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C59="Alimentacion",C59="Simyo",C59="Piso", C59="Spotify",C59="Guitarra",C59="Salsa",C59="DeGiro",C59="Luz",C59="Agua"),IF(E59="Gasto","Fijo",""),IF(E59="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G59" s="66" t="s">
@@ -61743,11 +61766,11 @@
         <v>-1.75</v>
       </c>
       <c r="E60" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D60&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F60" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C60="Alimentacion",C60="Simyo",C60="Piso", C60="Spotify",C60="Guitarra",C60="Salsa",C60="DeGiro",C60="Luz",C60="Agua"),IF(E60="Gasto","Fijo",""),IF(E60="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G60" s="66"/>
@@ -61766,11 +61789,11 @@
         <v>-10</v>
       </c>
       <c r="E61" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D61&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F61" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C61="Alimentacion",C61="Simyo",C61="Piso", C61="Spotify",C61="Guitarra",C61="Salsa",C61="DeGiro",C61="Luz",C61="Agua"),IF(E61="Gasto","Fijo",""),IF(E61="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G61" s="66" t="s">
@@ -61791,11 +61814,11 @@
         <v>-1.99</v>
       </c>
       <c r="E62" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D62&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F62" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C62="Alimentacion",C62="Simyo",C62="Piso", C62="Spotify",C62="Guitarra",C62="Salsa",C62="DeGiro",C62="Luz",C62="Agua"),IF(E62="Gasto","Fijo",""),IF(E62="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G62" s="66" t="s">
@@ -61816,11 +61839,11 @@
         <v>-19.03</v>
       </c>
       <c r="E63" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D63&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F63" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C63="Alimentacion",C63="Simyo",C63="Piso", C63="Spotify",C63="Guitarra",C63="Salsa",C63="DeGiro",C63="Luz",C63="Agua"),IF(E63="Gasto","Fijo",""),IF(E63="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G63" s="66"/>
@@ -61839,11 +61862,11 @@
         <v>-39.97</v>
       </c>
       <c r="E64" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D64&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F64" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C64="Alimentacion",C64="Simyo",C64="Piso", C64="Spotify",C64="Guitarra",C64="Salsa",C64="DeGiro",C64="Luz",C64="Agua"),IF(E64="Gasto","Fijo",""),IF(E64="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G64" s="66"/>
@@ -61862,11 +61885,11 @@
         <v>-109</v>
       </c>
       <c r="E65" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D65&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F65" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C65="Alimentacion",C65="Simyo",C65="Piso", C65="Spotify",C65="Guitarra",C65="Salsa",C65="DeGiro",C65="Luz",C65="Agua"),IF(E65="Gasto","Fijo",""),IF(E65="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G65" s="66"/>
@@ -61885,11 +61908,11 @@
         <v>-5.35</v>
       </c>
       <c r="E66" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D66&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F66" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C66="Alimentacion",C66="Simyo",C66="Piso", C66="Spotify",C66="Guitarra",C66="Salsa",C66="DeGiro",C66="Luz",C66="Agua"),IF(E66="Gasto","Fijo",""),IF(E66="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G66" s="66"/>
@@ -61908,11 +61931,11 @@
         <v>-0.35</v>
       </c>
       <c r="E67" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D67&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F67" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C67="Alimentacion",C67="Simyo",C67="Piso", C67="Spotify",C67="Guitarra",C67="Salsa",C67="DeGiro",C67="Luz",C67="Agua"),IF(E67="Gasto","Fijo",""),IF(E67="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G67" s="66"/>
@@ -61931,11 +61954,11 @@
         <v>-2</v>
       </c>
       <c r="E68" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D68&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F68" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C68="Alimentacion",C68="Simyo",C68="Piso", C68="Spotify",C68="Guitarra",C68="Salsa",C68="DeGiro",C68="Luz",C68="Agua"),IF(E68="Gasto","Fijo",""),IF(E68="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G68" s="66"/>
@@ -61954,11 +61977,11 @@
         <v>19.75</v>
       </c>
       <c r="E69" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D69&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F69" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C69="Alimentacion",C69="Simyo",C69="Piso", C69="Spotify",C69="Guitarra",C69="Salsa",C69="DeGiro",C69="Luz",C69="Agua"),IF(E69="Gasto","Fijo",""),IF(E69="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G69" s="66"/>
@@ -61977,11 +62000,11 @@
         <v>-1000</v>
       </c>
       <c r="E70" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D70&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F70" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C70="Alimentacion",C70="Simyo",C70="Piso", C70="Spotify",C70="Guitarra",C70="Salsa",C70="DeGiro",C70="Luz",C70="Agua"),IF(E70="Gasto","Fijo",""),IF(E70="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G70" s="66"/>
@@ -62000,11 +62023,11 @@
         <v>500</v>
       </c>
       <c r="E71" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D71&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F71" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C71="Alimentacion",C71="Simyo",C71="Piso", C71="Spotify",C71="Guitarra",C71="Salsa",C71="DeGiro",C71="Luz",C71="Agua"),IF(E71="Gasto","Fijo",""),IF(E71="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G71" s="66"/>
@@ -62023,11 +62046,11 @@
         <v>-6</v>
       </c>
       <c r="E72" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D72&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F72" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C72="Alimentacion",C72="Simyo",C72="Piso", C72="Spotify",C72="Guitarra",C72="Salsa",C72="DeGiro",C72="Luz",C72="Agua"),IF(E72="Gasto","Fijo",""),IF(E72="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G72" s="66" t="s">
@@ -62048,11 +62071,11 @@
         <v>-34.49</v>
       </c>
       <c r="E73" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D73&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F73" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C73="Alimentacion",C73="Simyo",C73="Piso", C73="Spotify",C73="Guitarra",C73="Salsa",C73="DeGiro",C73="Luz",C73="Agua"),IF(E73="Gasto","Fijo",""),IF(E73="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G73" s="66"/>
@@ -62071,11 +62094,11 @@
         <v>2.5</v>
       </c>
       <c r="E74" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D74&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F74" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C74="Alimentacion",C74="Simyo",C74="Piso", C74="Spotify",C74="Guitarra",C74="Salsa",C74="DeGiro",C74="Luz",C74="Agua"),IF(E74="Gasto","Fijo",""),IF(E74="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G74" s="66" t="s">
@@ -62096,11 +62119,11 @@
         <v>2.5</v>
       </c>
       <c r="E75" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D75&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F75" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C75="Alimentacion",C75="Simyo",C75="Piso", C75="Spotify",C75="Guitarra",C75="Salsa",C75="DeGiro",C75="Luz",C75="Agua"),IF(E75="Gasto","Fijo",""),IF(E75="Gasto","Variable",""))</f>
         <v/>
       </c>
       <c r="G75" s="66" t="s">
@@ -62121,11 +62144,11 @@
         <v>-200</v>
       </c>
       <c r="E76" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D76&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F76" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C76="Alimentacion",C76="Simyo",C76="Piso", C76="Spotify",C76="Guitarra",C76="Salsa",C76="DeGiro",C76="Luz",C76="Agua"),IF(E76="Gasto","Fijo",""),IF(E76="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G76" s="66" t="s">
@@ -62146,11 +62169,11 @@
         <v>-150</v>
       </c>
       <c r="E77" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D77&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F77" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C77="Alimentacion",C77="Simyo",C77="Piso", C77="Spotify",C77="Guitarra",C77="Salsa",C77="DeGiro",C77="Luz",C77="Agua"),IF(E77="Gasto","Fijo",""),IF(E77="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G77" s="66" t="s">
@@ -62159,153 +62182,157 @@
     </row>
     <row r="78" spans="1:7" ht="15.75" customHeight="1">
       <c r="A78" s="65">
-        <v>44962</v>
+        <v>44959</v>
       </c>
       <c r="B78" s="66" t="s">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="C78" s="66" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D78" s="67">
-        <v>4</v>
+        <v>-61</v>
       </c>
       <c r="E78" s="68" t="str">
-        <f t="shared" si="4"/>
-        <v>Ingreso</v>
+        <f>IF(D78&lt;0,"Gasto","Ingreso")</f>
+        <v>Gasto</v>
       </c>
       <c r="F78" s="69" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f>IF(OR(C78="Alimentacion",C78="Simyo",C78="Piso", C78="Spotify",C78="Guitarra",C78="Salsa",C78="DeGiro",C78="Luz",C78="Agua"),IF(E78="Gasto","Fijo",""),IF(E78="Gasto","Variable",""))</f>
+        <v>Variable</v>
       </c>
       <c r="G78" s="66" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="15.75" customHeight="1">
       <c r="A79" s="65">
-        <v>44961</v>
+        <v>44959</v>
       </c>
       <c r="B79" s="66" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C79" s="66" t="s">
         <v>75</v>
       </c>
       <c r="D79" s="67">
-        <v>-3.46</v>
+        <v>-8.75</v>
       </c>
       <c r="E79" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D79&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F79" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C79="Alimentacion",C79="Simyo",C79="Piso", C79="Spotify",C79="Guitarra",C79="Salsa",C79="DeGiro",C79="Luz",C79="Agua"),IF(E79="Gasto","Fijo",""),IF(E79="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G79" s="66" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" customHeight="1">
       <c r="A80" s="65">
-        <v>44959</v>
+        <v>44961</v>
       </c>
       <c r="B80" s="66" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C80" s="66" t="s">
         <v>75</v>
       </c>
       <c r="D80" s="67">
-        <v>-61</v>
+        <v>-3.46</v>
       </c>
       <c r="E80" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D80&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F80" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C80="Alimentacion",C80="Simyo",C80="Piso", C80="Spotify",C80="Guitarra",C80="Salsa",C80="DeGiro",C80="Luz",C80="Agua"),IF(E80="Gasto","Fijo",""),IF(E80="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G80" s="66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="15.75" customHeight="1">
       <c r="A81" s="65">
-        <v>44959</v>
+        <v>44962</v>
       </c>
       <c r="B81" s="66" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="C81" s="66" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D81" s="67">
-        <v>-8.75</v>
+        <v>4</v>
       </c>
       <c r="E81" s="68" t="str">
-        <f t="shared" si="4"/>
-        <v>Gasto</v>
+        <f>IF(D81&lt;0,"Gasto","Ingreso")</f>
+        <v>Ingreso</v>
       </c>
       <c r="F81" s="69" t="str">
-        <f t="shared" si="5"/>
-        <v>Variable</v>
+        <f>IF(OR(C81="Alimentacion",C81="Simyo",C81="Piso", C81="Spotify",C81="Guitarra",C81="Salsa",C81="DeGiro",C81="Luz",C81="Agua"),IF(E81="Gasto","Fijo",""),IF(E81="Gasto","Variable",""))</f>
+        <v/>
       </c>
       <c r="G81" s="66" t="s">
-        <v>153</v>
+        <v>68</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="15.75" customHeight="1">
       <c r="A82" s="65">
-        <v>44967</v>
+        <v>44962</v>
       </c>
       <c r="B82" s="66" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="C82" s="69" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="D82" s="67">
-        <v>617.13</v>
+        <v>18.5</v>
       </c>
       <c r="E82" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D82&lt;0,"Gasto","Ingreso")</f>
         <v>Ingreso</v>
       </c>
       <c r="F82" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C82="Alimentacion",C82="Simyo",C82="Piso", C82="Spotify",C82="Guitarra",C82="Salsa",C82="DeGiro",C82="Luz",C82="Agua"),IF(E82="Gasto","Fijo",""),IF(E82="Gasto","Variable",""))</f>
         <v/>
       </c>
-      <c r="G82" s="66"/>
+      <c r="G82" s="69" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="83" spans="1:7" ht="15.75" customHeight="1">
       <c r="A83" s="65">
-        <v>44966</v>
+        <v>44962</v>
       </c>
       <c r="B83" s="66" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="C83" s="69" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D83" s="67">
-        <v>-15.99</v>
+        <v>-37</v>
       </c>
       <c r="E83" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D83&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F83" s="69" t="str">
-        <f t="shared" si="5"/>
-        <v>Fijo</v>
-      </c>
-      <c r="G83" s="66"/>
+        <f>IF(OR(C83="Alimentacion",C83="Simyo",C83="Piso", C83="Spotify",C83="Guitarra",C83="Salsa",C83="DeGiro",C83="Luz",C83="Agua"),IF(E83="Gasto","Fijo",""),IF(E83="Gasto","Variable",""))</f>
+        <v>Variable</v>
+      </c>
+      <c r="G83" s="69" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="84" spans="1:7" ht="15.75" customHeight="1">
       <c r="A84" s="65">
-        <v>44964</v>
+        <v>44962</v>
       </c>
       <c r="B84" s="66" t="s">
         <v>82</v>
@@ -62314,40 +62341,42 @@
         <v>154</v>
       </c>
       <c r="D84" s="67">
-        <v>-37.51</v>
+        <v>-9.41</v>
       </c>
       <c r="E84" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D84&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F84" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C84="Alimentacion",C84="Simyo",C84="Piso", C84="Spotify",C84="Guitarra",C84="Salsa",C84="DeGiro",C84="Luz",C84="Agua"),IF(E84="Gasto","Fijo",""),IF(E84="Gasto","Variable",""))</f>
         <v>Variable</v>
       </c>
       <c r="G84" s="66"/>
     </row>
     <row r="85" spans="1:7" ht="15.75" customHeight="1">
       <c r="A85" s="65">
-        <v>44964</v>
+        <v>44962</v>
       </c>
       <c r="B85" s="66" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="D85" s="67">
-        <v>57.96</v>
+        <v>-30</v>
       </c>
       <c r="E85" s="68" t="str">
-        <f t="shared" si="4"/>
-        <v>Ingreso</v>
+        <f>IF(D85&lt;0,"Gasto","Ingreso")</f>
+        <v>Gasto</v>
       </c>
       <c r="F85" s="69" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G85" s="66"/>
+        <f>IF(OR(C85="Alimentacion",C85="Simyo",C85="Piso", C85="Spotify",C85="Guitarra",C85="Salsa",C85="DeGiro",C85="Luz",C85="Agua"),IF(E85="Gasto","Fijo",""),IF(E85="Gasto","Variable",""))</f>
+        <v>Variable</v>
+      </c>
+      <c r="G85" s="69" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="86" spans="1:7" ht="15.75" customHeight="1">
       <c r="A86" s="65">
@@ -62363,11 +62392,11 @@
         <v>-100</v>
       </c>
       <c r="E86" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D86&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F86" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C86="Alimentacion",C86="Simyo",C86="Piso", C86="Spotify",C86="Guitarra",C86="Salsa",C86="DeGiro",C86="Luz",C86="Agua"),IF(E86="Gasto","Fijo",""),IF(E86="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G86" s="66"/>
@@ -62379,181 +62408,266 @@
       <c r="B87" s="66" t="s">
         <v>70</v>
       </c>
-      <c r="C87" s="69" t="s">
+      <c r="C87" s="66" t="s">
         <v>71</v>
       </c>
       <c r="D87" s="67">
         <v>-115.92</v>
       </c>
       <c r="E87" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D87&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F87" s="69" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(OR(C87="Alimentacion",C87="Simyo",C87="Piso", C87="Spotify",C87="Guitarra",C87="Salsa",C87="DeGiro",C87="Luz",C87="Agua"),IF(E87="Gasto","Fijo",""),IF(E87="Gasto","Variable",""))</f>
         <v>Fijo</v>
       </c>
       <c r="G87" s="66"/>
     </row>
     <row r="88" spans="1:7" ht="15.75" customHeight="1">
       <c r="A88" s="65">
-        <v>44962</v>
+        <v>44964</v>
       </c>
       <c r="B88" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="C88" s="69" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="C88" s="66" t="s">
+        <v>154</v>
       </c>
       <c r="D88" s="67">
-        <v>18.5</v>
+        <v>-37.51</v>
       </c>
       <c r="E88" s="68" t="str">
-        <f t="shared" si="4"/>
-        <v>Ingreso</v>
+        <f>IF(D88&lt;0,"Gasto","Ingreso")</f>
+        <v>Gasto</v>
       </c>
       <c r="F88" s="69" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G88" s="69" t="s">
-        <v>155</v>
-      </c>
+        <f>IF(OR(C88="Alimentacion",C88="Simyo",C88="Piso", C88="Spotify",C88="Guitarra",C88="Salsa",C88="DeGiro",C88="Luz",C88="Agua"),IF(E88="Gasto","Fijo",""),IF(E88="Gasto","Variable",""))</f>
+        <v>Variable</v>
+      </c>
+      <c r="G88" s="66"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" customHeight="1">
       <c r="A89" s="65">
-        <v>44962</v>
+        <v>44964</v>
       </c>
       <c r="B89" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="C89" s="69" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C89" s="66" t="s">
+        <v>71</v>
       </c>
       <c r="D89" s="67">
-        <v>-37</v>
+        <v>57.96</v>
       </c>
       <c r="E89" s="68" t="str">
-        <f t="shared" si="4"/>
-        <v>Gasto</v>
+        <f>IF(D89&lt;0,"Gasto","Ingreso")</f>
+        <v>Ingreso</v>
       </c>
       <c r="F89" s="69" t="str">
-        <f t="shared" si="5"/>
-        <v>Variable</v>
-      </c>
-      <c r="G89" s="69" t="s">
-        <v>155</v>
-      </c>
+        <f>IF(OR(C89="Alimentacion",C89="Simyo",C89="Piso", C89="Spotify",C89="Guitarra",C89="Salsa",C89="DeGiro",C89="Luz",C89="Agua"),IF(E89="Gasto","Fijo",""),IF(E89="Gasto","Variable",""))</f>
+        <v/>
+      </c>
+      <c r="G89" s="66"/>
     </row>
     <row r="90" spans="1:7" ht="15.75" customHeight="1">
       <c r="A90" s="65">
-        <v>44962</v>
+        <v>44966</v>
       </c>
       <c r="B90" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="C90" s="69" t="s">
-        <v>154</v>
+        <v>95</v>
+      </c>
+      <c r="C90" s="66" t="s">
+        <v>51</v>
       </c>
       <c r="D90" s="67">
-        <v>-9.41</v>
+        <v>-15.99</v>
       </c>
       <c r="E90" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D90&lt;0,"Gasto","Ingreso")</f>
         <v>Gasto</v>
       </c>
       <c r="F90" s="69" t="str">
-        <f t="shared" si="5"/>
-        <v>Variable</v>
+        <f>IF(OR(C90="Alimentacion",C90="Simyo",C90="Piso", C90="Spotify",C90="Guitarra",C90="Salsa",C90="DeGiro",C90="Luz",C90="Agua"),IF(E90="Gasto","Fijo",""),IF(E90="Gasto","Variable",""))</f>
+        <v>Fijo</v>
       </c>
       <c r="G90" s="66"/>
     </row>
     <row r="91" spans="1:7" ht="15.75" customHeight="1">
       <c r="A91" s="65">
-        <v>44962</v>
+        <v>44967</v>
       </c>
       <c r="B91" s="66" t="s">
-        <v>85</v>
-      </c>
-      <c r="C91" s="69" t="s">
-        <v>157</v>
+        <v>98</v>
+      </c>
+      <c r="C91" s="66" t="s">
+        <v>99</v>
       </c>
       <c r="D91" s="67">
-        <v>-30</v>
+        <v>617.13</v>
       </c>
       <c r="E91" s="68" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(D91&lt;0,"Gasto","Ingreso")</f>
+        <v>Ingreso</v>
+      </c>
+      <c r="F91" s="69" t="str">
+        <f t="shared" ref="F91:F95" si="0">IF(OR(C91="Alimentacion",C91="Simyo",C91="Piso", C91="Spotify",C91="Guitarra",C91="Salsa",C91="DeGiro",C91="Luz",C91="Agua"),IF(E91="Gasto","Fijo",""),IF(E91="Gasto","Variable",""))</f>
+        <v/>
+      </c>
+      <c r="G91" s="66"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A92" s="65">
+        <v>44969</v>
+      </c>
+      <c r="B92" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" s="67">
+        <v>35.15</v>
+      </c>
+      <c r="E92" s="68" t="str">
+        <f t="shared" ref="E92:E95" si="1">IF(D92&lt;0,"Gasto","Ingreso")</f>
+        <v>Ingreso</v>
+      </c>
+      <c r="F92" s="69" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G92" s="66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A93" s="65">
+        <v>44969</v>
+      </c>
+      <c r="B93" s="66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D93" s="67">
+        <v>-70.3</v>
+      </c>
+      <c r="E93" s="68" t="str">
+        <f t="shared" si="1"/>
         <v>Gasto</v>
       </c>
-      <c r="F91" s="69" t="str">
-        <f t="shared" si="5"/>
+      <c r="F93" s="69" t="str">
+        <f t="shared" si="0"/>
         <v>Variable</v>
       </c>
-      <c r="G91" s="69" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" ht="15.75" customHeight="1">
-      <c r="G92" s="66"/>
-    </row>
-    <row r="93" spans="1:7" ht="15.75" customHeight="1">
       <c r="G93" s="66"/>
     </row>
     <row r="94" spans="1:7" ht="15.75" customHeight="1">
-      <c r="G94" s="66"/>
+      <c r="A94" s="65">
+        <v>44969</v>
+      </c>
+      <c r="B94" s="66" t="s">
+        <v>161</v>
+      </c>
+      <c r="C94" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" s="67">
+        <v>-6.2</v>
+      </c>
+      <c r="E94" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v>Gasto</v>
+      </c>
+      <c r="F94" s="69" t="str">
+        <f t="shared" si="0"/>
+        <v>Variable</v>
+      </c>
+      <c r="G94" s="66" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="95" spans="1:7" ht="15.75" customHeight="1">
-      <c r="G95" s="66"/>
+      <c r="A95" s="65">
+        <v>44969</v>
+      </c>
+      <c r="B95" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D95" s="67">
+        <v>-22.5</v>
+      </c>
+      <c r="E95" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v>Gasto</v>
+      </c>
+      <c r="F95" s="69" t="str">
+        <f t="shared" si="0"/>
+        <v>Variable</v>
+      </c>
+      <c r="G95" s="66" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="96" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A96" s="65"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="66"/>
       <c r="G96" s="66"/>
     </row>
-    <row r="97" spans="7:7" ht="15.75" customHeight="1">
+    <row r="97" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B97" s="66"/>
+      <c r="C97" s="66"/>
       <c r="G97" s="66"/>
     </row>
-    <row r="98" spans="7:7" ht="15.75" customHeight="1">
+    <row r="98" spans="2:7" ht="15.75" customHeight="1">
       <c r="G98" s="66"/>
     </row>
-    <row r="99" spans="7:7" ht="15.75" customHeight="1">
+    <row r="99" spans="2:7" ht="15.75" customHeight="1">
       <c r="G99" s="66"/>
     </row>
-    <row r="100" spans="7:7" ht="15.75" customHeight="1">
+    <row r="100" spans="2:7" ht="15.75" customHeight="1">
       <c r="G100" s="66"/>
     </row>
-    <row r="101" spans="7:7" ht="15.75" customHeight="1">
+    <row r="101" spans="2:7" ht="15.75" customHeight="1">
       <c r="G101" s="66"/>
     </row>
-    <row r="102" spans="7:7" ht="15.75" customHeight="1">
+    <row r="102" spans="2:7" ht="15.75" customHeight="1">
       <c r="G102" s="66"/>
     </row>
-    <row r="103" spans="7:7" ht="15.75" customHeight="1">
+    <row r="103" spans="2:7" ht="15.75" customHeight="1">
       <c r="G103" s="66"/>
     </row>
-    <row r="104" spans="7:7" ht="15.75" customHeight="1">
+    <row r="104" spans="2:7" ht="15.75" customHeight="1">
       <c r="G104" s="66"/>
     </row>
-    <row r="105" spans="7:7" ht="15.75" customHeight="1">
+    <row r="105" spans="2:7" ht="15.75" customHeight="1">
       <c r="G105" s="66"/>
     </row>
-    <row r="106" spans="7:7" ht="15.75" customHeight="1">
+    <row r="106" spans="2:7" ht="15.75" customHeight="1">
       <c r="G106" s="66"/>
     </row>
-    <row r="107" spans="7:7" ht="15.75" customHeight="1">
+    <row r="107" spans="2:7" ht="15.75" customHeight="1">
       <c r="G107" s="66"/>
     </row>
-    <row r="108" spans="7:7" ht="15.75" customHeight="1">
+    <row r="108" spans="2:7" ht="15.75" customHeight="1">
       <c r="G108" s="66"/>
     </row>
-    <row r="109" spans="7:7" ht="15.75" customHeight="1">
+    <row r="109" spans="2:7" ht="15.75" customHeight="1">
       <c r="G109" s="66"/>
     </row>
-    <row r="110" spans="7:7" ht="15.75" customHeight="1">
+    <row r="110" spans="2:7" ht="15.75" customHeight="1">
       <c r="G110" s="66"/>
     </row>
-    <row r="111" spans="7:7" ht="15.75" customHeight="1">
+    <row r="111" spans="2:7" ht="15.75" customHeight="1">
       <c r="G111" s="66"/>
     </row>
-    <row r="112" spans="7:7" ht="15.75" customHeight="1">
+    <row r="112" spans="2:7" ht="15.75" customHeight="1">
       <c r="G112" s="66"/>
     </row>
     <row r="113" spans="7:7" ht="15.75" customHeight="1">
@@ -65222,6 +65336,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G77" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G91">
+    <sortCondition ref="A84:A91"/>
+  </sortState>
   <conditionalFormatting sqref="D1:D1000">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
